--- a/Whaleshit Fantasy Record Book.xlsx
+++ b/Whaleshit Fantasy Record Book.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rajiva Bowl Winners" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="87">
   <si>
     <t>Rajiva Bowl Champions</t>
   </si>
@@ -260,6 +260,36 @@
   </si>
   <si>
     <t>Win % 2</t>
+  </si>
+  <si>
+    <t>A Rustling in the Bushes</t>
+  </si>
+  <si>
+    <t>Dykstra</t>
+  </si>
+  <si>
+    <t>Harambe's Revenge</t>
+  </si>
+  <si>
+    <t>Make My Team Great Again</t>
+  </si>
+  <si>
+    <t>Presented By Jimmy Starlight</t>
+  </si>
+  <si>
+    <t>Golden Tate Warriors</t>
+  </si>
+  <si>
+    <t>Dak to the Future</t>
+  </si>
+  <si>
+    <t>You Like That?</t>
+  </si>
+  <si>
+    <t>Professor Chaos</t>
+  </si>
+  <si>
+    <t>Make America Great Again</t>
   </si>
 </sst>
 </file>
@@ -809,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,19 +920,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>2015</v>
@@ -922,6 +952,66 @@
         <v>9</v>
       </c>
       <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2015</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>2016</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
@@ -935,7 +1025,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,6 +2343,390 @@
         <v>1232</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>2016</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="I38">
+        <v>1375.6</v>
+      </c>
+      <c r="J38">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>2016</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I39">
+        <v>1269.9000000000001</v>
+      </c>
+      <c r="J39">
+        <v>1185.5999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>2016</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="I40">
+        <v>1190.4000000000001</v>
+      </c>
+      <c r="J40">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>2016</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="I41">
+        <v>1206.9000000000001</v>
+      </c>
+      <c r="J41">
+        <v>1150.0999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>2016</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I42">
+        <v>1328.2</v>
+      </c>
+      <c r="J42">
+        <v>1198.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>2016</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I43">
+        <v>1255</v>
+      </c>
+      <c r="J43">
+        <v>1220.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>2016</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I44">
+        <v>1189.9000000000001</v>
+      </c>
+      <c r="J44">
+        <v>1216.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45">
+        <v>2016</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I45">
+        <v>1122.3</v>
+      </c>
+      <c r="J45">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46">
+        <v>2016</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="I46">
+        <v>1032.4000000000001</v>
+      </c>
+      <c r="J46">
+        <v>1167.0999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>2016</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="I47">
+        <v>1123.0999999999999</v>
+      </c>
+      <c r="J47">
+        <v>1156.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>2016</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I48">
+        <v>1186.0999999999999</v>
+      </c>
+      <c r="J48">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>2016</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="I49">
+        <v>1067.2</v>
+      </c>
+      <c r="J49">
+        <v>1268.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2261,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,19 +2852,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>141</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,19 +2872,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2418,19 +2892,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2438,19 +2912,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>135.6</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2458,19 +2932,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>133</v>
+        <v>135.6</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2478,19 +2952,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <v>2016</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>135.1</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10">
-        <v>2014</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>132</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2498,19 +2972,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>132</v>
+        <v>134.9</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,18 +2992,78 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>2014</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2014</v>
+      </c>
+      <c r="E13">
         <v>13</v>
       </c>
-      <c r="F12">
+      <c r="F13">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>2014</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>2014</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>36</v>
       </c>
     </row>
